--- a/Doc/hardware/管脚资源.xlsx
+++ b/Doc/hardware/管脚资源.xlsx
@@ -11,16 +11,74 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>gan0ling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如何使用？</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>gan0ling:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如何使用？</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>NRF51822管脚配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
   <si>
     <t>管脚位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供电电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,31 +96,477 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>默认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上拉/下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上拉/下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入/输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nRF51822-mKIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OpenCloudEvnMonitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上拉/下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用功能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用功能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他考虑</t>
+    <t>nRF51822 DK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nRF51822 EK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF51822管脚配置表
+QFN48封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC/DC output voltage to external LC filter.</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用IO口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用功能
+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟输入和低功耗比较器的输入参考电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.00
+AREF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.01
+AIN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用功能
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用功能
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.02
+AIN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP 输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.03
+AIN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.04
+AIN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.05
+AIN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.06
+AIN7
+AFRE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP参考输入1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP参考输入
+AREF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入2
+AIN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入3
+AIN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入4
+AIN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入5
+AIN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入6
+AIN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP 输入或者其输入参考电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电引脚 Power Supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groud（地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDIO
+nRESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET(低有效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDCLK Debug时钟输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power decoupling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD_PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power supply output (+1.6 V) for on-chip RF power amp</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Differential antenna connection (TX and RX).</t>
+  </si>
+  <si>
+    <t>电源地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground（0V）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟电源输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog Power supply</t>
+  </si>
+  <si>
+    <t>XC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/32MHz晶振或外部16/32MHz时钟输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/32MHz晶振输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源去耦用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.26
+AIN0
+XL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768KHz晶振输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.27
+AIN1
+XL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC/LPCOMP输入1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768KHz晶振输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768KHz晶振或外部32.768KHz时钟输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEGUB Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +598,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +633,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -131,20 +664,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,86 +1023,2057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="10.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="43" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18.125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9" style="5"/>
+    <col min="23" max="23" width="10.5" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="V3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A51" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <f>A8+1</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+    </row>
+    <row r="33" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+    </row>
+    <row r="34" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+    </row>
+    <row r="38" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+    </row>
+    <row r="42" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+    </row>
+    <row r="48" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+    </row>
+    <row r="49" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576 L4:L1048576 T4:T1048576 P4:P1048576">
+      <formula1>"输入,输出"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
